--- a/CodeSystem-ml-type-cs.xlsx
+++ b/CodeSystem-ml-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T17:02:09+00:00</t>
+    <t>2022-04-18T14:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ml-type-cs.xlsx
+++ b/CodeSystem-ml-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:20:50+00:00</t>
+    <t>2022-04-18T14:45:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ml-type-cs.xlsx
+++ b/CodeSystem-ml-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:45:03+00:00</t>
+    <t>2022-04-18T14:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ml-type-cs.xlsx
+++ b/CodeSystem-ml-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:58:53+00:00</t>
+    <t>2022-04-20T08:29:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ml-type-cs.xlsx
+++ b/CodeSystem-ml-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T08:29:01+00:00</t>
+    <t>2022-04-20T08:41:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ml-type-cs.xlsx
+++ b/CodeSystem-ml-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T08:41:13+00:00</t>
+    <t>2022-04-20T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ml-type-cs.xlsx
+++ b/CodeSystem-ml-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T08:59:23+00:00</t>
+    <t>2022-07-06T15:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ml-type-cs.xlsx
+++ b/CodeSystem-ml-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-06T15:59:32+00:00</t>
+    <t>2022-07-07T15:44:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ml-type-cs.xlsx
+++ b/CodeSystem-ml-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-07T15:44:13+00:00</t>
+    <t>2022-07-08T12:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ml-type-cs.xlsx
+++ b/CodeSystem-ml-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T12:00:34+00:00</t>
+    <t>2022-07-08T18:36:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ml-type-cs.xlsx
+++ b/CodeSystem-ml-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T18:36:24+00:00</t>
+    <t>2022-07-09T09:32:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ml-type-cs.xlsx
+++ b/CodeSystem-ml-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T09:32:33+00:00</t>
+    <t>2022-07-14T15:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ml-type-cs.xlsx
+++ b/CodeSystem-ml-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T15:59:36+00:00</t>
+    <t>2022-07-14T16:27:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ml-type-cs.xlsx
+++ b/CodeSystem-ml-type-cs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/example/CodeSystem/ml-type-cs</t>
+    <t>https://joofio.github.io/obs-cdss-fhir//CodeSystem/ml-type-cs</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T16:27:57+00:00</t>
+    <t>2022-07-15T07:25:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ml-type-cs.xlsx
+++ b/CodeSystem-ml-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T07:25:18+00:00</t>
+    <t>2022-07-15T07:32:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ml-type-cs.xlsx
+++ b/CodeSystem-ml-type-cs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://joofio.github.io/obs-cdss-fhir//CodeSystem/ml-type-cs</t>
+    <t>https://joofio.github.io/obs-cdss-fhir/CodeSystem/ml-type-cs</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T07:32:14+00:00</t>
+    <t>2022-07-15T07:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ml-type-cs.xlsx
+++ b/CodeSystem-ml-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T07:33:23+00:00</t>
+    <t>2022-07-18T07:59:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ml-type-cs.xlsx
+++ b/CodeSystem-ml-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T07:59:46+00:00</t>
+    <t>2022-08-18T10:28:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ml-type-cs.xlsx
+++ b/CodeSystem-ml-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-18T10:28:24+00:00</t>
+    <t>2023-05-26T10:36:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>

--- a/CodeSystem-ml-type-cs.xlsx
+++ b/CodeSystem-ml-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-26T10:36:36+00:00</t>
+    <t>2023-05-26T10:57:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ml-type-cs.xlsx
+++ b/CodeSystem-ml-type-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,25 +57,10 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-26T10:57:36+00:00</t>
+    <t>2023-06-03T17:27:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
-  </si>
-  <si>
-    <t>xxxYour Work Group</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>
@@ -293,7 +278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -369,96 +354,78 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>16</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>9</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -476,86 +443,86 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="B4" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="C4" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/CodeSystem-ml-type-cs.xlsx
+++ b/CodeSystem-ml-type-cs.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-03T17:27:06+00:00</t>
+    <t>2023-06-12T12:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -266,10 +266,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/CodeSystem-ml-type-cs.xlsx
+++ b/CodeSystem-ml-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-12T12:03:44+00:00</t>
+    <t>2023-06-22T10:40:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ml-type-cs.xlsx
+++ b/CodeSystem-ml-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-22T10:40:10+00:00</t>
+    <t>2023-06-22T11:40:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ml-type-cs.xlsx
+++ b/CodeSystem-ml-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-22T11:40:33+00:00</t>
+    <t>2023-09-10T21:33:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ml-type-cs.xlsx
+++ b/CodeSystem-ml-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-10T21:33:21+00:00</t>
+    <t>2024-03-26T13:57:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
